--- a/2018/FF 2018.xlsx
+++ b/2018/FF 2018.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51D617F-52CA-47F9-8B87-78094F29F455}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D490C7-E068-4E6F-AF3E-D39FAF10AA97}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t>team</t>
   </si>
@@ -115,13 +115,16 @@
   </si>
   <si>
     <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>IR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +148,18 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -246,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -303,6 +318,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,7 +608,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,7 +914,7 @@
         <v>128.5</v>
       </c>
       <c r="L8" s="21">
-        <v>176.1</v>
+        <v>177.1</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1092,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,7 +1125,7 @@
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1119,210 +1141,247 @@
       <c r="E1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>28</v>
-      </c>
-      <c r="D2">
-        <v>27</v>
-      </c>
-      <c r="E2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="37">
+        <v>2</v>
+      </c>
+      <c r="C2" s="37">
+        <v>36</v>
+      </c>
+      <c r="D2" s="37">
+        <v>35</v>
+      </c>
+      <c r="E2" s="37">
+        <v>60</v>
+      </c>
+      <c r="F2" s="37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="37">
+        <v>0</v>
+      </c>
+      <c r="C3" s="37">
+        <v>14</v>
+      </c>
+      <c r="D3" s="37">
+        <v>14</v>
+      </c>
+      <c r="E3" s="37">
+        <v>28</v>
+      </c>
+      <c r="F3" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>27</v>
-      </c>
-      <c r="D4">
-        <v>27</v>
-      </c>
-      <c r="E4">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="37">
+        <v>0</v>
+      </c>
+      <c r="C4" s="37">
+        <v>29</v>
+      </c>
+      <c r="D4" s="37">
+        <v>29</v>
+      </c>
+      <c r="E4" s="37">
+        <v>46</v>
+      </c>
+      <c r="F4" s="37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="37">
+        <v>0</v>
+      </c>
+      <c r="C5" s="37">
+        <v>25</v>
+      </c>
+      <c r="D5" s="37">
+        <v>24</v>
+      </c>
+      <c r="E5" s="37">
+        <v>36</v>
+      </c>
+      <c r="F5" s="37">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>34</v>
-      </c>
-      <c r="D5">
-        <v>33</v>
-      </c>
-      <c r="E5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="37">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>9</v>
-      </c>
-      <c r="E6">
+      <c r="C6" s="37">
+        <v>11</v>
+      </c>
+      <c r="D6" s="37">
+        <v>11</v>
+      </c>
+      <c r="E6" s="37">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="37">
         <v>1</v>
       </c>
-      <c r="C7">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="37">
+        <v>14</v>
+      </c>
+      <c r="D7" s="37">
+        <v>15</v>
+      </c>
+      <c r="E7" s="37">
+        <v>26</v>
+      </c>
+      <c r="F7" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>36</v>
-      </c>
-      <c r="D8">
-        <v>36</v>
-      </c>
-      <c r="E8">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="37">
+        <v>1</v>
+      </c>
+      <c r="C8" s="37">
+        <v>18</v>
+      </c>
+      <c r="D8" s="37">
+        <v>17</v>
+      </c>
+      <c r="E8" s="37">
+        <v>31</v>
+      </c>
+      <c r="F8" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="37">
+        <v>2</v>
+      </c>
+      <c r="C9" s="37">
+        <v>6</v>
+      </c>
+      <c r="D9" s="37">
         <v>7</v>
       </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="37">
+        <v>27</v>
+      </c>
+      <c r="F9" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>13</v>
-      </c>
-      <c r="D10">
-        <v>13</v>
-      </c>
-      <c r="E10">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="37">
+        <v>1</v>
+      </c>
+      <c r="C10" s="37">
+        <v>6</v>
+      </c>
+      <c r="D10" s="37">
+        <v>6</v>
+      </c>
+      <c r="E10" s="37">
+        <v>27</v>
+      </c>
+      <c r="F10" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="37">
+        <v>1</v>
+      </c>
+      <c r="C11" s="37">
         <v>5</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="37">
         <v>5</v>
       </c>
-      <c r="E11">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="37">
+        <v>29</v>
+      </c>
+      <c r="F11" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="37">
         <v>1</v>
       </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="37">
+        <v>13</v>
+      </c>
+      <c r="D12" s="37">
+        <v>13</v>
+      </c>
+      <c r="E12" s="37">
+        <v>33</v>
+      </c>
+      <c r="F12" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>19</v>
-      </c>
-      <c r="D13">
-        <v>19</v>
-      </c>
-      <c r="E13">
-        <v>39</v>
-      </c>
+      <c r="B13" s="37">
+        <v>3</v>
+      </c>
+      <c r="C13" s="37">
+        <v>40</v>
+      </c>
+      <c r="D13" s="37">
+        <v>37</v>
+      </c>
+      <c r="E13" s="37">
+        <v>65</v>
+      </c>
+      <c r="F13" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
